--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,40 @@
         <v>0.4</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HON</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Honeywell International Inc.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Industrials</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>227.45</v>
+      </c>
+      <c r="F7" t="n">
+        <v>146308808704</v>
+      </c>
+      <c r="G7" t="n">
+        <v>26.113663</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,204 +478,34 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BY6.F</t>
+          <t>HON</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BYD Company Limited</t>
+          <t>Honeywell International Inc.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Auto Manufacturers</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>43.93</v>
+        <v>227.45</v>
       </c>
       <c r="F2" t="n">
-        <v>131907739648</v>
+        <v>146308808704</v>
       </c>
       <c r="G2" t="n">
-        <v>23.367022</v>
+        <v>26.113663</v>
       </c>
       <c r="H2" t="n">
-        <v>1.15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GE</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GE Aerospace</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Aerospace &amp; Defense</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>245.91</v>
-      </c>
-      <c r="F3" t="n">
-        <v>262235979776</v>
-      </c>
-      <c r="G3" t="n">
-        <v>38.787067</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>GEV</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GE Vernova Inc.</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Specialty Industrial Machinery</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>472.98</v>
-      </c>
-      <c r="F4" t="n">
-        <v>129092804608</v>
-      </c>
-      <c r="G4" t="n">
-        <v>68.05468</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>RHM.F</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Rheinmetall AG</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Aerospace &amp; Defense</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>1884</v>
-      </c>
-      <c r="F5" t="n">
-        <v>84114948096</v>
-      </c>
-      <c r="G5" t="n">
-        <v>101.01877</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>SDV1.F</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Saab AB (publ)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Aerospace &amp; Defense</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>44.135</v>
-      </c>
-      <c r="F6" t="n">
-        <v>23904487424</v>
-      </c>
-      <c r="G6" t="n">
-        <v>55.168747</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>HON</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Honeywell International Inc.</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Industrials</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>227.45</v>
-      </c>
-      <c r="F7" t="n">
-        <v>146308808704</v>
-      </c>
-      <c r="G7" t="n">
-        <v>26.113663</v>
-      </c>
-      <c r="H7" t="n">
         <v>1.99</v>
       </c>
     </row>
